--- a/일정표/LOD 일정표.xlsx
+++ b/일정표/LOD 일정표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.83.44230"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>프로젝트 일정</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>관리자 기능/문의기능 개발</t>
+  </si>
+  <si>
+    <t>오류 검사 및  테스트</t>
   </si>
 </sst>
 </file>
@@ -422,6 +425,16 @@
       <color rgb="FFFF0000"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="돋움"/>
       <color rgb="FF000000"/>
@@ -430,16 +443,6 @@
       <sz val="11.0"/>
       <name val="돋움"/>
       <color theme="3"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="배달의민족 주아"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="돋움"/>
-      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
   <fills count="37">
@@ -3464,11 +3467,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
@@ -5062,10 +5065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -6080,7 +6083,7 @@
     </row>
     <row r="25" spans="1:34" ht="17.100000" customHeight="1">
       <c r="A25" s="405" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B25" s="406"/>
       <c r="C25" s="415"/>
